--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_127__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_127__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5417,58 +5417,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-0.1655012518167496</c:v>
+                  <c:v>-0.1654975265264511</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4489363729953766</c:v>
+                  <c:v>0.4489438235759735</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>31.76929473876953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.3791446685791</c:v>
+                  <c:v>22.37915229797363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.28506660461426</c:v>
+                  <c:v>28.28507041931152</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.1447646468877792</c:v>
+                  <c:v>-0.1447720974683762</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.01434033364057541</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.002733801025897264</c:v>
+                  <c:v>0.002737530507147312</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.08498652279376984</c:v>
+                  <c:v>-0.08499398082494736</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4214193224906921</c:v>
+                  <c:v>0.4214155972003937</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.241005897521973</c:v>
+                  <c:v>-5.241013526916504</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53.19031143188477</c:v>
+                  <c:v>53.19030380249023</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-0.164359986782074</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.06001681461930275</c:v>
+                  <c:v>-0.06002054363489151</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54.35881423950195</c:v>
+                  <c:v>54.35880279541016</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.15650367736816</c:v>
+                  <c:v>22.1565055847168</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.605036735534668</c:v>
+                  <c:v>3.605033159255981</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61.22401428222656</c:v>
+                  <c:v>61.22400665283203</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.04036552086472511</c:v>
@@ -5477,13 +5477,13 @@
                   <c:v>2.324043989181519</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.4080375134944916</c:v>
+                  <c:v>-0.4080300331115723</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.02362332120537758</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44.44596099853516</c:v>
+                  <c:v>44.44595718383789</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>-0.03411470353603363</c:v>
@@ -5492,31 +5492,31 @@
                   <c:v>-0.03884757310152054</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.05947229266166687</c:v>
+                  <c:v>-0.05947602167725563</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.1229986622929573</c:v>
+                  <c:v>-0.1230023950338364</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>49.9620475769043</c:v>
+                  <c:v>49.96204376220703</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.1021949201822281</c:v>
+                  <c:v>-0.1021986529231071</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>51.09106063842773</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.01633940264582634</c:v>
+                  <c:v>-0.01634686067700386</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-0.08394969254732132</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.430658340454102</c:v>
+                  <c:v>8.430654525756836</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0003878789721056819</c:v>
+                  <c:v>0.0003804197767749429</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-0.5012664794921875</c:v>
@@ -5528,37 +5528,37 @@
                   <c:v>-0.15423783659935</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>34.14899826049805</c:v>
+                  <c:v>34.14900207519531</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>34.31557846069336</c:v>
+                  <c:v>34.31558609008789</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.393391847610474</c:v>
+                  <c:v>1.39339554309845</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>35.97975158691406</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.03910118713974953</c:v>
+                  <c:v>-0.03910491615533829</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.006336600054055452</c:v>
+                  <c:v>0.0063403295353055</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-0.2077651470899582</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.575432300567627</c:v>
+                  <c:v>5.575436115264893</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0687590092420578</c:v>
+                  <c:v>0.06876646727323532</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>36.12657928466797</c:v>
+                  <c:v>36.12658309936523</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.07263779640197754</c:v>
+                  <c:v>0.07263033837080002</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>47.91677093505859</c:v>
@@ -5567,19 +5567,19 @@
                   <c:v>0.5338781476020813</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.02409698255360126</c:v>
+                  <c:v>0.02409325167536736</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1083002910017967</c:v>
+                  <c:v>0.1082965582609177</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0.3756943643093109</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.1166583374142647</c:v>
+                  <c:v>-0.1166657954454422</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2286173701286316</c:v>
+                  <c:v>0.2286248207092285</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>-0.4444794654846191</c:v>
@@ -5600,55 +5600,55 @@
                   <c:v>-0.002759908093139529</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.01578742079436779</c:v>
+                  <c:v>0.01579114980995655</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.02242238819599152</c:v>
+                  <c:v>0.02242611907422543</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1750900596380234</c:v>
+                  <c:v>0.175093799829483</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.002211656188592315</c:v>
+                  <c:v>0.002207926474511623</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.01596644148230553</c:v>
+                  <c:v>-0.01596271246671677</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.05640655383467674</c:v>
+                  <c:v>-0.05639909580349922</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>51.62598419189453</c:v>
+                  <c:v>51.62598037719727</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1811655908823013</c:v>
+                  <c:v>0.1811618655920029</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.04018650203943253</c:v>
+                  <c:v>-0.04019023105502129</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.2208299487829208</c:v>
+                  <c:v>-0.2208224833011627</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1341240704059601</c:v>
+                  <c:v>0.1341315358877182</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.1460961103439331</c:v>
+                  <c:v>-0.1460923850536346</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>50.01517105102539</c:v>
+                  <c:v>50.01517486572266</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>44.68639755249023</c:v>
+                  <c:v>44.68639373779297</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.03593102097511292</c:v>
+                  <c:v>0.03593474999070168</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>6.69724178314209</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.0257305484265089</c:v>
+                  <c:v>-0.02572681941092014</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0.01541445963084698</c:v>
@@ -5663,28 +5663,28 @@
                   <c:v>0.02685688994824886</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.2180439382791519</c:v>
+                  <c:v>-0.2180401980876923</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.1059133410453796</c:v>
+                  <c:v>-0.1059096083045006</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>-0.5228981971740723</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>36.93779754638672</c:v>
+                  <c:v>36.93780517578125</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.01499301474541426</c:v>
+                  <c:v>0.01500047370791435</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.08241682499647141</c:v>
+                  <c:v>0.08242055773735046</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.1281529814004898</c:v>
+                  <c:v>-0.1281567066907883</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>17.56826591491699</c:v>
+                  <c:v>17.56826210021973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.1655012518167496</v>
+        <v>-0.1654975265264511</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4489363729953766</v>
+        <v>0.4489438235759735</v>
       </c>
       <c r="G3">
         <v>92</v>
@@ -6475,7 +6475,7 @@
         <v>46.4901</v>
       </c>
       <c r="F5">
-        <v>22.3791446685791</v>
+        <v>22.37915229797363</v>
       </c>
       <c r="G5">
         <v>92</v>
@@ -6507,7 +6507,7 @@
         <v>45.684</v>
       </c>
       <c r="F6">
-        <v>28.28506660461426</v>
+        <v>28.28507041931152</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>45.5437</v>
       </c>
       <c r="F7">
-        <v>-0.1447646468877792</v>
+        <v>-0.1447720974683762</v>
       </c>
       <c r="G7">
         <v>92</v>
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.002733801025897264</v>
+        <v>0.002737530507147312</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-0.08498652279376984</v>
+        <v>-0.08499398082494736</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4214193224906921</v>
+        <v>0.4214155972003937</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-5.241005897521973</v>
+        <v>-5.241013526916504</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>50.4351</v>
       </c>
       <c r="F13">
-        <v>53.19031143188477</v>
+        <v>53.19030380249023</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-0.06001681461930275</v>
+        <v>-0.06002054363489151</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>48.8989</v>
       </c>
       <c r="F16">
-        <v>54.35881423950195</v>
+        <v>54.35880279541016</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6751,7 +6751,7 @@
         <v>40.625</v>
       </c>
       <c r="F17">
-        <v>22.15650367736816</v>
+        <v>22.1565055847168</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.605036735534668</v>
+        <v>3.605033159255981</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>44.1708</v>
       </c>
       <c r="F19">
-        <v>61.22401428222656</v>
+        <v>61.22400665283203</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>46.4283</v>
       </c>
       <c r="F22">
-        <v>-0.4080375134944916</v>
+        <v>-0.4080300331115723</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>46.0768</v>
       </c>
       <c r="F24">
-        <v>44.44596099853516</v>
+        <v>44.44595718383789</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.05947229266166687</v>
+        <v>-0.05947602167725563</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-0.1229986622929573</v>
+        <v>-0.1230023950338364</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>49.5298</v>
       </c>
       <c r="F29">
-        <v>49.9620475769043</v>
+        <v>49.96204376220703</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-0.1021949201822281</v>
+        <v>-0.1021986529231071</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>-0.01633940264582634</v>
+        <v>-0.01634686067700386</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>8.430658340454102</v>
+        <v>8.430654525756836</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.0003878789721056819</v>
+        <v>0.0003804197767749429</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>45.1545</v>
       </c>
       <c r="F39">
-        <v>34.14899826049805</v>
+        <v>34.14900207519531</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>54.5459</v>
       </c>
       <c r="F40">
-        <v>34.31557846069336</v>
+        <v>34.31558609008789</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.393391847610474</v>
+        <v>1.39339554309845</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-0.03910118713974953</v>
+        <v>-0.03910491615533829</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.006336600054055452</v>
+        <v>0.0063403295353055</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>5.575432300567627</v>
+        <v>5.575436115264893</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.0687590092420578</v>
+        <v>0.06876646727323532</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>36.12657928466797</v>
+        <v>36.12658309936523</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.07263779640197754</v>
+        <v>0.07263033837080002</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.02409698255360126</v>
+        <v>0.02409325167536736</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.1083002910017967</v>
+        <v>0.1082965582609177</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-0.1166583374142647</v>
+        <v>-0.1166657954454422</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0.2286173701286316</v>
+        <v>0.2286248207092285</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.01578742079436779</v>
+        <v>0.01579114980995655</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.02242238819599152</v>
+        <v>0.02242611907422543</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.1750900596380234</v>
+        <v>0.175093799829483</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0.002211656188592315</v>
+        <v>0.002207926474511623</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.01596644148230553</v>
+        <v>-0.01596271246671677</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-0.05640655383467674</v>
+        <v>-0.05639909580349922</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>49.8632</v>
       </c>
       <c r="F69">
-        <v>51.62598419189453</v>
+        <v>51.62598037719727</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0.1811655908823013</v>
+        <v>0.1811618655920029</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>-0.04018650203943253</v>
+        <v>-0.04019023105502129</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>-0.2208299487829208</v>
+        <v>-0.2208224833011627</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.1341240704059601</v>
+        <v>0.1341315358877182</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>-0.1460961103439331</v>
+        <v>-0.1460923850536346</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>51.39</v>
       </c>
       <c r="F75">
-        <v>50.01517105102539</v>
+        <v>50.01517486572266</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>46.3983</v>
       </c>
       <c r="F76">
-        <v>44.68639755249023</v>
+        <v>44.68639373779297</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.03593102097511292</v>
+        <v>0.03593474999070168</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-0.0257305484265089</v>
+        <v>-0.02572681941092014</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.2180439382791519</v>
+        <v>-0.2180401980876923</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-0.1059133410453796</v>
+        <v>-0.1059096083045006</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>36.93779754638672</v>
+        <v>36.93780517578125</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.01499301474541426</v>
+        <v>0.01500047370791435</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.08241682499647141</v>
+        <v>0.08242055773735046</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.1281529814004898</v>
+        <v>-0.1281567066907883</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>17.56826591491699</v>
+        <v>17.56826210021973</v>
       </c>
     </row>
     <row r="92" spans="1:6">
